--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R63d8c5d1fe274396"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Re070b9055f714034"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Re070b9055f714034"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc08c68c6ee504edd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rc08c68c6ee504edd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7536219febe24bf3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7536219febe24bf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R675e85d6acf64b5e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R675e85d6acf64b5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra165b465ab674f1e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra165b465ab674f1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7127d11b79444158"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7127d11b79444158"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R86be03d783ae4ccc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R86be03d783ae4ccc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra21954d040574b85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Ra21954d040574b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R42b0698623ad440f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R42b0698623ad440f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R811835b0b74a4aa2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R811835b0b74a4aa2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R216224a507464da0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R216224a507464da0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R25ab6543dde0471f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R25ab6543dde0471f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7d92cfcb3fcd4ea8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7d92cfcb3fcd4ea8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rd4301ecbb3f84864"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/76_GenericTableToWorkbook.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rd4301ecbb3f84864"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R530671040ee6450f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
